--- a/Code/Results/Cases/Case_2_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.032474094207534</v>
+        <v>1.058167944988267</v>
       </c>
       <c r="D2">
-        <v>1.045977324347603</v>
+        <v>1.058725373056155</v>
       </c>
       <c r="E2">
-        <v>1.012156261091117</v>
+        <v>1.062588550130235</v>
       </c>
       <c r="F2">
-        <v>1.022362024180568</v>
+        <v>1.071747681098949</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062076815504636</v>
+        <v>1.051361620810624</v>
       </c>
       <c r="J2">
-        <v>1.053725072247646</v>
+        <v>1.063160570128734</v>
       </c>
       <c r="K2">
-        <v>1.056831233911627</v>
+        <v>1.061456822395036</v>
       </c>
       <c r="L2">
-        <v>1.023448798374978</v>
+        <v>1.065309489731029</v>
       </c>
       <c r="M2">
-        <v>1.033518369004859</v>
+        <v>1.074444030770481</v>
       </c>
       <c r="N2">
-        <v>1.055221482714193</v>
+        <v>1.064670380084539</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.039577868940277</v>
+        <v>1.059510692235543</v>
       </c>
       <c r="D3">
-        <v>1.05163546004193</v>
+        <v>1.059793389953043</v>
       </c>
       <c r="E3">
-        <v>1.020220644453363</v>
+        <v>1.064148733673818</v>
       </c>
       <c r="F3">
-        <v>1.030822226820913</v>
+        <v>1.073410820050889</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.06518893423187</v>
+        <v>1.051846399970022</v>
       </c>
       <c r="J3">
-        <v>1.059044816837176</v>
+        <v>1.064154186863574</v>
       </c>
       <c r="K3">
-        <v>1.061647682781243</v>
+        <v>1.06233828545679</v>
       </c>
       <c r="L3">
-        <v>1.030601173976498</v>
+        <v>1.06668264594684</v>
       </c>
       <c r="M3">
-        <v>1.041075354348637</v>
+        <v>1.075921694277832</v>
       </c>
       <c r="N3">
-        <v>1.060548781951224</v>
+        <v>1.065665407869112</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044030266570736</v>
+        <v>1.060377981668332</v>
       </c>
       <c r="D4">
-        <v>1.055183156840462</v>
+        <v>1.060483064905856</v>
       </c>
       <c r="E4">
-        <v>1.025255499070245</v>
+        <v>1.065154928149513</v>
       </c>
       <c r="F4">
-        <v>1.036111278119179</v>
+        <v>1.074484279259166</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.067125798435492</v>
+        <v>1.052157958495326</v>
       </c>
       <c r="J4">
-        <v>1.062371007125122</v>
+        <v>1.064795083169943</v>
       </c>
       <c r="K4">
-        <v>1.064658242992106</v>
+        <v>1.06290665139731</v>
       </c>
       <c r="L4">
-        <v>1.035058376198591</v>
+        <v>1.067567332066591</v>
       </c>
       <c r="M4">
-        <v>1.045792564092687</v>
+        <v>1.076874664656871</v>
       </c>
       <c r="N4">
-        <v>1.063879695810898</v>
+        <v>1.066307214321747</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.045869542054079</v>
+        <v>1.060742224202449</v>
       </c>
       <c r="D5">
-        <v>1.056648964242663</v>
+        <v>1.060772673207596</v>
       </c>
       <c r="E5">
-        <v>1.027331030080583</v>
+        <v>1.065577144230937</v>
       </c>
       <c r="F5">
-        <v>1.038293262732426</v>
+        <v>1.074934927791413</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067922599367134</v>
+        <v>1.052288431762263</v>
       </c>
       <c r="J5">
-        <v>1.063743110587861</v>
+        <v>1.065064033105569</v>
       </c>
       <c r="K5">
-        <v>1.065899897769146</v>
+        <v>1.063145118487129</v>
       </c>
       <c r="L5">
-        <v>1.036893795089079</v>
+        <v>1.06793834798816</v>
       </c>
       <c r="M5">
-        <v>1.047736906069122</v>
+        <v>1.077274545282428</v>
       </c>
       <c r="N5">
-        <v>1.065253747817936</v>
+        <v>1.066576546197131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.046176513111122</v>
+        <v>1.060803360870062</v>
       </c>
       <c r="D6">
-        <v>1.056893617784867</v>
+        <v>1.060821280445305</v>
       </c>
       <c r="E6">
-        <v>1.027677185001367</v>
+        <v>1.065647990348522</v>
       </c>
       <c r="F6">
-        <v>1.03865726899196</v>
+        <v>1.07501055688773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068055388071064</v>
+        <v>1.052310309217132</v>
       </c>
       <c r="J6">
-        <v>1.063971997356505</v>
+        <v>1.065109162827697</v>
       </c>
       <c r="K6">
-        <v>1.066107008729628</v>
+        <v>1.063185130505518</v>
       </c>
       <c r="L6">
-        <v>1.037199787464992</v>
+        <v>1.068000590424118</v>
       </c>
       <c r="M6">
-        <v>1.048061165904429</v>
+        <v>1.077341643487088</v>
       </c>
       <c r="N6">
-        <v>1.065482959632045</v>
+        <v>1.066621740008641</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.044054968284858</v>
+        <v>1.060382850124171</v>
       </c>
       <c r="D7">
-        <v>1.055202841879201</v>
+        <v>1.060486935960893</v>
       </c>
       <c r="E7">
-        <v>1.025283390536795</v>
+        <v>1.065160572901314</v>
       </c>
       <c r="F7">
-        <v>1.036140593574</v>
+        <v>1.074490303320516</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.067136512730514</v>
+        <v>1.052159703869769</v>
       </c>
       <c r="J7">
-        <v>1.062389442344555</v>
+        <v>1.064798678782679</v>
       </c>
       <c r="K7">
-        <v>1.064674926540285</v>
+        <v>1.062909839662696</v>
       </c>
       <c r="L7">
-        <v>1.035083048853839</v>
+        <v>1.067572293144365</v>
       </c>
       <c r="M7">
-        <v>1.045818693632517</v>
+        <v>1.076880010805703</v>
       </c>
       <c r="N7">
-        <v>1.063898157210457</v>
+        <v>1.066310815040666</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.034905982758817</v>
+        <v>1.058622059495344</v>
       </c>
       <c r="D8">
-        <v>1.047913982483756</v>
+        <v>1.059086607928271</v>
       </c>
       <c r="E8">
-        <v>1.014921376240809</v>
+        <v>1.063116523021613</v>
       </c>
       <c r="F8">
-        <v>1.025261338190357</v>
+        <v>1.072310314420404</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063145090477543</v>
+        <v>1.051525896234756</v>
       </c>
       <c r="J8">
-        <v>1.055547913925275</v>
+        <v>1.06349679333821</v>
       </c>
       <c r="K8">
-        <v>1.058481804862905</v>
+        <v>1.061755133870346</v>
       </c>
       <c r="L8">
-        <v>1.02590295126923</v>
+        <v>1.065774356579685</v>
       </c>
       <c r="M8">
-        <v>1.036109664336942</v>
+        <v>1.07494407931718</v>
       </c>
       <c r="N8">
-        <v>1.057046913036087</v>
+        <v>1.065007080769538</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.0175781790895</v>
+        <v>1.05550707485115</v>
       </c>
       <c r="D9">
-        <v>1.034123898089163</v>
+        <v>1.056608080192013</v>
       </c>
       <c r="E9">
-        <v>0.9951170070607032</v>
+        <v>1.059488388096098</v>
       </c>
       <c r="F9">
-        <v>1.004528327323418</v>
+        <v>1.068447593005431</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055474924241323</v>
+        <v>1.050392626597349</v>
       </c>
       <c r="J9">
-        <v>1.042525119594915</v>
+        <v>1.061186829430176</v>
       </c>
       <c r="K9">
-        <v>1.046686578510015</v>
+        <v>1.059704865461536</v>
       </c>
       <c r="L9">
-        <v>1.008289807352932</v>
+        <v>1.062576200568616</v>
       </c>
       <c r="M9">
-        <v>1.01754836034325</v>
+        <v>1.071507833037924</v>
       </c>
       <c r="N9">
-        <v>1.044005624844042</v>
+        <v>1.062693836447798</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005052593983922</v>
+        <v>1.053421740212671</v>
       </c>
       <c r="D10">
-        <v>1.024171127680188</v>
+        <v>1.05494803782139</v>
       </c>
       <c r="E10">
-        <v>0.9806466090012173</v>
+        <v>1.057051119146853</v>
       </c>
       <c r="F10">
-        <v>0.9894234783995314</v>
+        <v>1.065857278994093</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049856488620338</v>
+        <v>1.049625880509076</v>
       </c>
       <c r="J10">
-        <v>1.03306717180646</v>
+        <v>1.059635826981102</v>
       </c>
       <c r="K10">
-        <v>1.038117261220468</v>
+        <v>1.058327275796743</v>
       </c>
       <c r="L10">
-        <v>0.9953743136073435</v>
+        <v>1.060423152993143</v>
       </c>
       <c r="M10">
-        <v>1.003986357576785</v>
+        <v>1.069199486423959</v>
       </c>
       <c r="N10">
-        <v>1.034534245684886</v>
+        <v>1.061140631397343</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.999354072037375</v>
+        <v>1.052516609152738</v>
       </c>
       <c r="D11">
-        <v>1.019648192068524</v>
+        <v>1.0542273261195</v>
       </c>
       <c r="E11">
-        <v>0.9740175716690119</v>
+        <v>1.055991172175288</v>
       </c>
       <c r="F11">
-        <v>0.9825151027731178</v>
+        <v>1.06473185858103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047283144370725</v>
+        <v>1.049291163056004</v>
       </c>
       <c r="J11">
-        <v>1.028753747078587</v>
+        <v>1.058961531088327</v>
       </c>
       <c r="K11">
-        <v>1.034208846864084</v>
+        <v>1.057728147630135</v>
       </c>
       <c r="L11">
-        <v>0.9894466957002325</v>
+        <v>1.059485713583325</v>
       </c>
       <c r="M11">
-        <v>0.9977744673390316</v>
+        <v>1.068195617394537</v>
       </c>
       <c r="N11">
-        <v>1.030214695399142</v>
+        <v>1.060465377927058</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9971916519398267</v>
+        <v>1.052180068851876</v>
       </c>
       <c r="D12">
-        <v>1.017932767983755</v>
+        <v>1.053959329674816</v>
       </c>
       <c r="E12">
-        <v>0.9714942536593214</v>
+        <v>1.055596753961426</v>
       </c>
       <c r="F12">
-        <v>0.9798872383936772</v>
+        <v>1.064313240493203</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046304077802844</v>
+        <v>1.049166422909274</v>
       </c>
       <c r="J12">
-        <v>1.027115343493885</v>
+        <v>1.058710654749415</v>
       </c>
       <c r="K12">
-        <v>1.0327242842832</v>
+        <v>1.05750520473352</v>
       </c>
       <c r="L12">
-        <v>0.9871887430408315</v>
+        <v>1.059136716808919</v>
       </c>
       <c r="M12">
-        <v>0.9954101848856872</v>
+        <v>1.067822068588122</v>
       </c>
       <c r="N12">
-        <v>1.028573965093423</v>
+        <v>1.060214145314968</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9976576469516709</v>
+        <v>1.052252273158259</v>
       </c>
       <c r="D13">
-        <v>1.018302394025066</v>
+        <v>1.054016829137383</v>
       </c>
       <c r="E13">
-        <v>0.9720383892970968</v>
+        <v>1.055681390255889</v>
       </c>
       <c r="F13">
-        <v>0.9804538368571836</v>
+        <v>1.064403062313613</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046515178631575</v>
+        <v>1.049193198762998</v>
       </c>
       <c r="J13">
-        <v>1.027468486256228</v>
+        <v>1.058764487368922</v>
       </c>
       <c r="K13">
-        <v>1.033044267192848</v>
+        <v>1.057553044940075</v>
       </c>
       <c r="L13">
-        <v>0.9876757277006588</v>
+        <v>1.059211613802627</v>
       </c>
       <c r="M13">
-        <v>0.9959200125822544</v>
+        <v>1.06790222651018</v>
       </c>
       <c r="N13">
-        <v>1.028927609358994</v>
+        <v>1.06026805438297</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9991762868694926</v>
+        <v>1.052488797497214</v>
       </c>
       <c r="D14">
-        <v>1.01950713809296</v>
+        <v>1.05420517944328</v>
       </c>
       <c r="E14">
-        <v>0.9738102787889727</v>
+        <v>1.055958583956106</v>
       </c>
       <c r="F14">
-        <v>0.9822991847088974</v>
+        <v>1.064697267545647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047202701260513</v>
+        <v>1.049280860406861</v>
       </c>
       <c r="J14">
-        <v>1.02861907656309</v>
+        <v>1.05894080203371</v>
       </c>
       <c r="K14">
-        <v>1.034086821179736</v>
+        <v>1.057709727295856</v>
       </c>
       <c r="L14">
-        <v>0.9892612356916713</v>
+        <v>1.059456881607659</v>
       </c>
       <c r="M14">
-        <v>0.997580233683431</v>
+        <v>1.068164753431602</v>
       </c>
       <c r="N14">
-        <v>1.030079833636067</v>
+        <v>1.060444619434806</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.00010576603513</v>
+        <v>1.052634483385871</v>
       </c>
       <c r="D15">
-        <v>1.02024461999059</v>
+        <v>1.054321189399314</v>
       </c>
       <c r="E15">
-        <v>0.9748937049560358</v>
+        <v>1.05612927799721</v>
       </c>
       <c r="F15">
-        <v>0.9834277636210192</v>
+        <v>1.064878458846179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047623162430189</v>
+        <v>1.049334817037933</v>
       </c>
       <c r="J15">
-        <v>1.029323083420667</v>
+        <v>1.059049380406195</v>
       </c>
       <c r="K15">
-        <v>1.034724725977815</v>
+        <v>1.057806211279946</v>
       </c>
       <c r="L15">
-        <v>0.9902304853997254</v>
+        <v>1.059607894044059</v>
       </c>
       <c r="M15">
-        <v>0.9985954159613526</v>
+        <v>1.068326416072171</v>
       </c>
       <c r="N15">
-        <v>1.030784840264132</v>
+        <v>1.060553352001034</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005424631452645</v>
+        <v>1.053481764375163</v>
       </c>
       <c r="D16">
-        <v>1.024466530765488</v>
+        <v>1.054995828473169</v>
       </c>
       <c r="E16">
-        <v>0.9810783786384685</v>
+        <v>1.05712136614487</v>
       </c>
       <c r="F16">
-        <v>0.9898736817415256</v>
+        <v>1.065931888044703</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05002414037659</v>
+        <v>1.049648037153032</v>
       </c>
       <c r="J16">
-        <v>1.033348563232769</v>
+        <v>1.059680520268793</v>
       </c>
       <c r="K16">
-        <v>1.038372229302766</v>
+        <v>1.058366982192631</v>
       </c>
       <c r="L16">
-        <v>0.9957601740339977</v>
+        <v>1.060485257820171</v>
       </c>
       <c r="M16">
-        <v>1.004390985719439</v>
+        <v>1.069266017182148</v>
       </c>
       <c r="N16">
-        <v>1.034816036719297</v>
+        <v>1.061185388154629</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008684499704543</v>
+        <v>1.054012654967341</v>
       </c>
       <c r="D17">
-        <v>1.027055499256067</v>
+        <v>1.055418498047836</v>
       </c>
       <c r="E17">
-        <v>0.9848563947040837</v>
+        <v>1.057742435368789</v>
       </c>
       <c r="F17">
-        <v>0.99381427036717</v>
+        <v>1.066591648215651</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051491204042901</v>
+        <v>1.049843783260423</v>
       </c>
       <c r="J17">
-        <v>1.035812988109134</v>
+        <v>1.06007568946132</v>
       </c>
       <c r="K17">
-        <v>1.040605213726562</v>
+        <v>1.058718032583795</v>
       </c>
       <c r="L17">
-        <v>0.9991352604628451</v>
+        <v>1.06103421376621</v>
       </c>
       <c r="M17">
-        <v>1.007931634137732</v>
+        <v>1.069854231616669</v>
       </c>
       <c r="N17">
-        <v>1.037283961361659</v>
+        <v>1.061581118532737</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010559739039778</v>
+        <v>1.054322105937566</v>
       </c>
       <c r="D18">
-        <v>1.028545270304241</v>
+        <v>1.055664850929679</v>
       </c>
       <c r="E18">
-        <v>0.9870254839920021</v>
+        <v>1.058104252469718</v>
       </c>
       <c r="F18">
-        <v>0.9960777469109722</v>
+        <v>1.066976109882881</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052333516581594</v>
+        <v>1.049957697309803</v>
       </c>
       <c r="J18">
-        <v>1.037229663467076</v>
+        <v>1.060305924773474</v>
       </c>
       <c r="K18">
-        <v>1.04188881807197</v>
+        <v>1.058922541688058</v>
       </c>
       <c r="L18">
-        <v>1.001071996893683</v>
+        <v>1.061353914093728</v>
       </c>
       <c r="M18">
-        <v>1.009964528760733</v>
+        <v>1.070196909456857</v>
       </c>
       <c r="N18">
-        <v>1.038702648561105</v>
+        <v>1.061811680805442</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011194829481874</v>
+        <v>1.054427585612692</v>
       </c>
       <c r="D19">
-        <v>1.029049889064142</v>
+        <v>1.055748820020722</v>
       </c>
       <c r="E19">
-        <v>0.9877594029708279</v>
+        <v>1.058227548268029</v>
       </c>
       <c r="F19">
-        <v>0.996843777800083</v>
+        <v>1.067107139909977</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052618508988245</v>
+        <v>1.049996494843696</v>
       </c>
       <c r="J19">
-        <v>1.037709284247335</v>
+        <v>1.06038438514055</v>
       </c>
       <c r="K19">
-        <v>1.042323381362595</v>
+        <v>1.058992231333607</v>
       </c>
       <c r="L19">
-        <v>1.001727125697295</v>
+        <v>1.061462839913165</v>
       </c>
       <c r="M19">
-        <v>1.010652377768534</v>
+        <v>1.070313683353983</v>
       </c>
       <c r="N19">
-        <v>1.039182950457885</v>
+        <v>1.061890252595239</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00833748522588</v>
+        <v>1.053955717065033</v>
       </c>
       <c r="D20">
-        <v>1.026779852933145</v>
+        <v>1.0553731685909</v>
       </c>
       <c r="E20">
-        <v>0.9844546674467015</v>
+        <v>1.057675846366836</v>
       </c>
       <c r="F20">
-        <v>0.9933951466212649</v>
+        <v>1.066520900096363</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051335202258128</v>
+        <v>1.049822808616143</v>
       </c>
       <c r="J20">
-        <v>1.035550751408489</v>
+        <v>1.060033318511296</v>
       </c>
       <c r="K20">
-        <v>1.040367606917977</v>
+        <v>1.058680394376391</v>
       </c>
       <c r="L20">
-        <v>0.9987764836454582</v>
+        <v>1.060975367446539</v>
       </c>
       <c r="M20">
-        <v>1.007555137233954</v>
+        <v>1.06979116509013</v>
       </c>
       <c r="N20">
-        <v>1.03702135225482</v>
+        <v>1.061538687411103</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9987303869433944</v>
+        <v>1.052419156273868</v>
       </c>
       <c r="D21">
-        <v>1.019153377907626</v>
+        <v>1.054149723084385</v>
       </c>
       <c r="E21">
-        <v>0.9732902423910884</v>
+        <v>1.055876976963229</v>
       </c>
       <c r="F21">
-        <v>0.9817575392092038</v>
+        <v>1.064610647769218</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047000902266785</v>
+        <v>1.049255057619263</v>
       </c>
       <c r="J21">
-        <v>1.028281286230335</v>
+        <v>1.058888893211422</v>
       </c>
       <c r="K21">
-        <v>1.033780747720794</v>
+        <v>1.05766359933813</v>
       </c>
       <c r="L21">
-        <v>0.9887959454099207</v>
+        <v>1.059384678286136</v>
       </c>
       <c r="M21">
-        <v>0.9970929633923707</v>
+        <v>1.068087464335713</v>
       </c>
       <c r="N21">
-        <v>1.029741563602294</v>
+        <v>1.060392636896036</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9924226719129446</v>
+        <v>1.051451120851826</v>
       </c>
       <c r="D22">
-        <v>1.014151402098593</v>
+        <v>1.053378801618636</v>
       </c>
       <c r="E22">
-        <v>0.9659137780657812</v>
+        <v>1.054741859194127</v>
       </c>
       <c r="F22">
-        <v>0.9740789541181279</v>
+        <v>1.063406192848196</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044140162077804</v>
+        <v>1.048895709136673</v>
       </c>
       <c r="J22">
-        <v>1.023499082171063</v>
+        <v>1.058166955657894</v>
       </c>
       <c r="K22">
-        <v>1.029447634819311</v>
+        <v>1.057021982543531</v>
       </c>
       <c r="L22">
-        <v>0.9821921438369199</v>
+        <v>1.058379970185533</v>
       </c>
       <c r="M22">
-        <v>0.9901820151274744</v>
+        <v>1.067012412499037</v>
       </c>
       <c r="N22">
-        <v>1.024952568264731</v>
+        <v>1.059669674108375</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9957935266150428</v>
+        <v>1.051964481433692</v>
       </c>
       <c r="D23">
-        <v>1.01682392085398</v>
+        <v>1.053787644216524</v>
       </c>
       <c r="E23">
-        <v>0.9698604595583904</v>
+        <v>1.055344000553052</v>
       </c>
       <c r="F23">
-        <v>0.9781862670928482</v>
+        <v>1.06404502529432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045670339036709</v>
+        <v>1.049086433538256</v>
       </c>
       <c r="J23">
-        <v>1.026055575530627</v>
+        <v>1.058549897477992</v>
       </c>
       <c r="K23">
-        <v>1.031764031684105</v>
+        <v>1.057362337421918</v>
       </c>
       <c r="L23">
-        <v>0.9857263099595159</v>
+        <v>1.058913024171119</v>
       </c>
       <c r="M23">
-        <v>0.9938794473771482</v>
+        <v>1.067582689518464</v>
       </c>
       <c r="N23">
-        <v>1.0275126921381</v>
+        <v>1.060053159749782</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008494366728801</v>
+        <v>1.053981445495796</v>
       </c>
       <c r="D24">
-        <v>1.026904468221278</v>
+        <v>1.055393651586638</v>
       </c>
       <c r="E24">
-        <v>0.9846362970407543</v>
+        <v>1.057705936434745</v>
       </c>
       <c r="F24">
-        <v>0.993584638288134</v>
+        <v>1.066552869253148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051405734007387</v>
+        <v>1.049832286962219</v>
       </c>
       <c r="J24">
-        <v>1.035669308854249</v>
+        <v>1.060052464923113</v>
       </c>
       <c r="K24">
-        <v>1.040475029255848</v>
+        <v>1.058697402242325</v>
       </c>
       <c r="L24">
-        <v>0.9989386975799013</v>
+        <v>1.061001959097542</v>
       </c>
       <c r="M24">
-        <v>1.0077253593774</v>
+        <v>1.069819663427846</v>
       </c>
       <c r="N24">
-        <v>1.037140078065752</v>
+        <v>1.061557861013022</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022216234301711</v>
+        <v>1.056313869812652</v>
       </c>
       <c r="D25">
-        <v>1.037812808593704</v>
+        <v>1.057250171274857</v>
       </c>
       <c r="E25">
-        <v>1.000441611034238</v>
+        <v>1.060429547466863</v>
       </c>
       <c r="F25">
-        <v>1.010095413076571</v>
+        <v>1.069448809915755</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057540609112167</v>
+        <v>1.050687569553421</v>
       </c>
       <c r="J25">
-        <v>1.04601838691067</v>
+        <v>1.061785927884796</v>
       </c>
       <c r="K25">
-        <v>1.049851176472676</v>
+        <v>1.06023678028977</v>
       </c>
       <c r="L25">
-        <v>1.013033075425826</v>
+        <v>1.063406632985007</v>
       </c>
       <c r="M25">
-        <v>1.022539006416396</v>
+        <v>1.072399214509136</v>
       </c>
       <c r="N25">
-        <v>1.047503853000069</v>
+        <v>1.06329378569094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058167944988267</v>
+        <v>1.032474094207532</v>
       </c>
       <c r="D2">
-        <v>1.058725373056155</v>
+        <v>1.045977324347602</v>
       </c>
       <c r="E2">
-        <v>1.062588550130235</v>
+        <v>1.012156261091117</v>
       </c>
       <c r="F2">
-        <v>1.071747681098949</v>
+        <v>1.022362024180568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051361620810624</v>
+        <v>1.062076815504635</v>
       </c>
       <c r="J2">
-        <v>1.063160570128734</v>
+        <v>1.053725072247645</v>
       </c>
       <c r="K2">
-        <v>1.061456822395036</v>
+        <v>1.056831233911625</v>
       </c>
       <c r="L2">
-        <v>1.065309489731029</v>
+        <v>1.023448798374977</v>
       </c>
       <c r="M2">
-        <v>1.074444030770481</v>
+        <v>1.033518369004859</v>
       </c>
       <c r="N2">
-        <v>1.064670380084539</v>
+        <v>1.055221482714192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059510692235543</v>
+        <v>1.039577868940279</v>
       </c>
       <c r="D3">
-        <v>1.059793389953043</v>
+        <v>1.051635460041932</v>
       </c>
       <c r="E3">
-        <v>1.064148733673818</v>
+        <v>1.020220644453364</v>
       </c>
       <c r="F3">
-        <v>1.073410820050889</v>
+        <v>1.030822226820913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051846399970022</v>
+        <v>1.065188934231871</v>
       </c>
       <c r="J3">
-        <v>1.064154186863574</v>
+        <v>1.059044816837178</v>
       </c>
       <c r="K3">
-        <v>1.06233828545679</v>
+        <v>1.061647682781245</v>
       </c>
       <c r="L3">
-        <v>1.06668264594684</v>
+        <v>1.030601173976498</v>
       </c>
       <c r="M3">
-        <v>1.075921694277832</v>
+        <v>1.041075354348638</v>
       </c>
       <c r="N3">
-        <v>1.065665407869112</v>
+        <v>1.060548781951226</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060377981668332</v>
+        <v>1.044030266570734</v>
       </c>
       <c r="D4">
-        <v>1.060483064905856</v>
+        <v>1.05518315684046</v>
       </c>
       <c r="E4">
-        <v>1.065154928149513</v>
+        <v>1.025255499070244</v>
       </c>
       <c r="F4">
-        <v>1.074484279259166</v>
+        <v>1.036111278119177</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052157958495326</v>
+        <v>1.067125798435491</v>
       </c>
       <c r="J4">
-        <v>1.064795083169943</v>
+        <v>1.06237100712512</v>
       </c>
       <c r="K4">
-        <v>1.06290665139731</v>
+        <v>1.064658242992104</v>
       </c>
       <c r="L4">
-        <v>1.067567332066591</v>
+        <v>1.03505837619859</v>
       </c>
       <c r="M4">
-        <v>1.076874664656871</v>
+        <v>1.045792564092686</v>
       </c>
       <c r="N4">
-        <v>1.066307214321747</v>
+        <v>1.063879695810895</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060742224202449</v>
+        <v>1.045869542054077</v>
       </c>
       <c r="D5">
-        <v>1.060772673207596</v>
+        <v>1.056648964242661</v>
       </c>
       <c r="E5">
-        <v>1.065577144230937</v>
+        <v>1.027331030080582</v>
       </c>
       <c r="F5">
-        <v>1.074934927791413</v>
+        <v>1.038293262732425</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052288431762263</v>
+        <v>1.067922599367133</v>
       </c>
       <c r="J5">
-        <v>1.065064033105569</v>
+        <v>1.063743110587859</v>
       </c>
       <c r="K5">
-        <v>1.063145118487129</v>
+        <v>1.065899897769145</v>
       </c>
       <c r="L5">
-        <v>1.06793834798816</v>
+        <v>1.036893795089078</v>
       </c>
       <c r="M5">
-        <v>1.077274545282428</v>
+        <v>1.047736906069121</v>
       </c>
       <c r="N5">
-        <v>1.066576546197131</v>
+        <v>1.065253747817934</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060803360870062</v>
+        <v>1.046176513111123</v>
       </c>
       <c r="D6">
-        <v>1.060821280445305</v>
+        <v>1.056893617784868</v>
       </c>
       <c r="E6">
-        <v>1.065647990348522</v>
+        <v>1.027677185001368</v>
       </c>
       <c r="F6">
-        <v>1.07501055688773</v>
+        <v>1.038657268991961</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052310309217132</v>
+        <v>1.068055388071064</v>
       </c>
       <c r="J6">
-        <v>1.065109162827697</v>
+        <v>1.063971997356506</v>
       </c>
       <c r="K6">
-        <v>1.063185130505518</v>
+        <v>1.066107008729629</v>
       </c>
       <c r="L6">
-        <v>1.068000590424118</v>
+        <v>1.037199787464993</v>
       </c>
       <c r="M6">
-        <v>1.077341643487088</v>
+        <v>1.04806116590443</v>
       </c>
       <c r="N6">
-        <v>1.066621740008641</v>
+        <v>1.065482959632047</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060382850124171</v>
+        <v>1.044054968284859</v>
       </c>
       <c r="D7">
-        <v>1.060486935960893</v>
+        <v>1.055202841879201</v>
       </c>
       <c r="E7">
-        <v>1.065160572901314</v>
+        <v>1.025283390536796</v>
       </c>
       <c r="F7">
-        <v>1.074490303320516</v>
+        <v>1.036140593574002</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052159703869769</v>
+        <v>1.067136512730514</v>
       </c>
       <c r="J7">
-        <v>1.064798678782679</v>
+        <v>1.062389442344557</v>
       </c>
       <c r="K7">
-        <v>1.062909839662696</v>
+        <v>1.064674926540286</v>
       </c>
       <c r="L7">
-        <v>1.067572293144365</v>
+        <v>1.035083048853841</v>
       </c>
       <c r="M7">
-        <v>1.076880010805703</v>
+        <v>1.045818693632518</v>
       </c>
       <c r="N7">
-        <v>1.066310815040666</v>
+        <v>1.063898157210458</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058622059495344</v>
+        <v>1.034905982758817</v>
       </c>
       <c r="D8">
-        <v>1.059086607928271</v>
+        <v>1.047913982483756</v>
       </c>
       <c r="E8">
-        <v>1.063116523021613</v>
+        <v>1.014921376240809</v>
       </c>
       <c r="F8">
-        <v>1.072310314420404</v>
+        <v>1.025261338190357</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051525896234756</v>
+        <v>1.063145090477543</v>
       </c>
       <c r="J8">
-        <v>1.06349679333821</v>
+        <v>1.055547913925275</v>
       </c>
       <c r="K8">
-        <v>1.061755133870346</v>
+        <v>1.058481804862905</v>
       </c>
       <c r="L8">
-        <v>1.065774356579685</v>
+        <v>1.02590295126923</v>
       </c>
       <c r="M8">
-        <v>1.07494407931718</v>
+        <v>1.036109664336942</v>
       </c>
       <c r="N8">
-        <v>1.065007080769538</v>
+        <v>1.057046913036087</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>1.05550707485115</v>
+        <v>1.017578179089499</v>
       </c>
       <c r="D9">
-        <v>1.056608080192013</v>
+        <v>1.034123898089162</v>
       </c>
       <c r="E9">
-        <v>1.059488388096098</v>
+        <v>0.9951170070607037</v>
       </c>
       <c r="F9">
-        <v>1.068447593005431</v>
+        <v>1.004528327323418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050392626597349</v>
+        <v>1.055474924241323</v>
       </c>
       <c r="J9">
-        <v>1.061186829430176</v>
+        <v>1.042525119594914</v>
       </c>
       <c r="K9">
-        <v>1.059704865461536</v>
+        <v>1.046686578510014</v>
       </c>
       <c r="L9">
-        <v>1.062576200568616</v>
+        <v>1.008289807352933</v>
       </c>
       <c r="M9">
-        <v>1.071507833037924</v>
+        <v>1.01754836034325</v>
       </c>
       <c r="N9">
-        <v>1.062693836447798</v>
+        <v>1.044005624844041</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053421740212671</v>
+        <v>1.005052593983921</v>
       </c>
       <c r="D10">
-        <v>1.05494803782139</v>
+        <v>1.024171127680187</v>
       </c>
       <c r="E10">
-        <v>1.057051119146853</v>
+        <v>0.9806466090012174</v>
       </c>
       <c r="F10">
-        <v>1.065857278994093</v>
+        <v>0.9894234783995309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049625880509076</v>
+        <v>1.049856488620337</v>
       </c>
       <c r="J10">
-        <v>1.059635826981102</v>
+        <v>1.033067171806459</v>
       </c>
       <c r="K10">
-        <v>1.058327275796743</v>
+        <v>1.038117261220467</v>
       </c>
       <c r="L10">
-        <v>1.060423152993143</v>
+        <v>0.9953743136073437</v>
       </c>
       <c r="M10">
-        <v>1.069199486423959</v>
+        <v>1.003986357576785</v>
       </c>
       <c r="N10">
-        <v>1.061140631397343</v>
+        <v>1.034534245684885</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052516609152738</v>
+        <v>0.9993540720373781</v>
       </c>
       <c r="D11">
-        <v>1.0542273261195</v>
+        <v>1.019648192068527</v>
       </c>
       <c r="E11">
-        <v>1.055991172175288</v>
+        <v>0.9740175716690143</v>
       </c>
       <c r="F11">
-        <v>1.06473185858103</v>
+        <v>0.9825151027731206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049291163056004</v>
+        <v>1.047283144370727</v>
       </c>
       <c r="J11">
-        <v>1.058961531088327</v>
+        <v>1.02875374707859</v>
       </c>
       <c r="K11">
-        <v>1.057728147630135</v>
+        <v>1.034208846864088</v>
       </c>
       <c r="L11">
-        <v>1.059485713583325</v>
+        <v>0.9894466957002349</v>
       </c>
       <c r="M11">
-        <v>1.068195617394537</v>
+        <v>0.9977744673390344</v>
       </c>
       <c r="N11">
-        <v>1.060465377927058</v>
+        <v>1.030214695399146</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052180068851876</v>
+        <v>0.9971916519398248</v>
       </c>
       <c r="D12">
-        <v>1.053959329674816</v>
+        <v>1.017932767983753</v>
       </c>
       <c r="E12">
-        <v>1.055596753961426</v>
+        <v>0.9714942536593196</v>
       </c>
       <c r="F12">
-        <v>1.064313240493203</v>
+        <v>0.9798872383936755</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049166422909274</v>
+        <v>1.046304077802843</v>
       </c>
       <c r="J12">
-        <v>1.058710654749415</v>
+        <v>1.027115343493883</v>
       </c>
       <c r="K12">
-        <v>1.05750520473352</v>
+        <v>1.032724284283199</v>
       </c>
       <c r="L12">
-        <v>1.059136716808919</v>
+        <v>0.9871887430408297</v>
       </c>
       <c r="M12">
-        <v>1.067822068588122</v>
+        <v>0.9954101848856854</v>
       </c>
       <c r="N12">
-        <v>1.060214145314968</v>
+        <v>1.028573965093421</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052252273158259</v>
+        <v>0.9976576469516708</v>
       </c>
       <c r="D13">
-        <v>1.054016829137383</v>
+        <v>1.018302394025065</v>
       </c>
       <c r="E13">
-        <v>1.055681390255889</v>
+        <v>0.9720383892970965</v>
       </c>
       <c r="F13">
-        <v>1.064403062313613</v>
+        <v>0.980453836857183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049193198762998</v>
+        <v>1.046515178631575</v>
       </c>
       <c r="J13">
-        <v>1.058764487368922</v>
+        <v>1.027468486256228</v>
       </c>
       <c r="K13">
-        <v>1.057553044940075</v>
+        <v>1.033044267192848</v>
       </c>
       <c r="L13">
-        <v>1.059211613802627</v>
+        <v>0.9876757277006584</v>
       </c>
       <c r="M13">
-        <v>1.06790222651018</v>
+        <v>0.9959200125822537</v>
       </c>
       <c r="N13">
-        <v>1.06026805438297</v>
+        <v>1.028927609358994</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052488797497214</v>
+        <v>0.9991762868694944</v>
       </c>
       <c r="D14">
-        <v>1.05420517944328</v>
+        <v>1.019507138092961</v>
       </c>
       <c r="E14">
-        <v>1.055958583956106</v>
+        <v>0.9738102787889756</v>
       </c>
       <c r="F14">
-        <v>1.064697267545647</v>
+        <v>0.9822991847089005</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049280860406861</v>
+        <v>1.047202701260514</v>
       </c>
       <c r="J14">
-        <v>1.05894080203371</v>
+        <v>1.028619076563092</v>
       </c>
       <c r="K14">
-        <v>1.057709727295856</v>
+        <v>1.034086821179738</v>
       </c>
       <c r="L14">
-        <v>1.059456881607659</v>
+        <v>0.9892612356916741</v>
       </c>
       <c r="M14">
-        <v>1.068164753431602</v>
+        <v>0.9975802336834338</v>
       </c>
       <c r="N14">
-        <v>1.060444619434806</v>
+        <v>1.030079833636068</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052634483385871</v>
+        <v>1.00010576603513</v>
       </c>
       <c r="D15">
-        <v>1.054321189399314</v>
+        <v>1.020244619990591</v>
       </c>
       <c r="E15">
-        <v>1.05612927799721</v>
+        <v>0.9748937049560362</v>
       </c>
       <c r="F15">
-        <v>1.064878458846179</v>
+        <v>0.9834277636210198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049334817037933</v>
+        <v>1.04762316243019</v>
       </c>
       <c r="J15">
-        <v>1.059049380406195</v>
+        <v>1.029323083420667</v>
       </c>
       <c r="K15">
-        <v>1.057806211279946</v>
+        <v>1.034724725977815</v>
       </c>
       <c r="L15">
-        <v>1.059607894044059</v>
+        <v>0.9902304853997257</v>
       </c>
       <c r="M15">
-        <v>1.068326416072171</v>
+        <v>0.998595415961353</v>
       </c>
       <c r="N15">
-        <v>1.060553352001034</v>
+        <v>1.030784840264132</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053481764375163</v>
+        <v>1.005424631452648</v>
       </c>
       <c r="D16">
-        <v>1.054995828473169</v>
+        <v>1.02446653076549</v>
       </c>
       <c r="E16">
-        <v>1.05712136614487</v>
+        <v>0.9810783786384707</v>
       </c>
       <c r="F16">
-        <v>1.065931888044703</v>
+        <v>0.9898736817415282</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049648037153032</v>
+        <v>1.050024140376592</v>
       </c>
       <c r="J16">
-        <v>1.059680520268793</v>
+        <v>1.033348563232772</v>
       </c>
       <c r="K16">
-        <v>1.058366982192631</v>
+        <v>1.038372229302769</v>
       </c>
       <c r="L16">
-        <v>1.060485257820171</v>
+        <v>0.995760174034</v>
       </c>
       <c r="M16">
-        <v>1.069266017182148</v>
+        <v>1.004390985719441</v>
       </c>
       <c r="N16">
-        <v>1.061185388154629</v>
+        <v>1.0348160367193</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054012654967341</v>
+        <v>1.008684499704543</v>
       </c>
       <c r="D17">
-        <v>1.055418498047836</v>
+        <v>1.027055499256067</v>
       </c>
       <c r="E17">
-        <v>1.057742435368789</v>
+        <v>0.9848563947040847</v>
       </c>
       <c r="F17">
-        <v>1.066591648215651</v>
+        <v>0.9938142703671711</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049843783260423</v>
+        <v>1.051491204042902</v>
       </c>
       <c r="J17">
-        <v>1.06007568946132</v>
+        <v>1.035812988109134</v>
       </c>
       <c r="K17">
-        <v>1.058718032583795</v>
+        <v>1.040605213726563</v>
       </c>
       <c r="L17">
-        <v>1.06103421376621</v>
+        <v>0.9991352604628456</v>
       </c>
       <c r="M17">
-        <v>1.069854231616669</v>
+        <v>1.007931634137733</v>
       </c>
       <c r="N17">
-        <v>1.061581118532737</v>
+        <v>1.03728396136166</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054322105937566</v>
+        <v>1.010559739039779</v>
       </c>
       <c r="D18">
-        <v>1.055664850929679</v>
+        <v>1.028545270304241</v>
       </c>
       <c r="E18">
-        <v>1.058104252469718</v>
+        <v>0.9870254839920037</v>
       </c>
       <c r="F18">
-        <v>1.066976109882881</v>
+        <v>0.9960777469109739</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049957697309803</v>
+        <v>1.052333516581594</v>
       </c>
       <c r="J18">
-        <v>1.060305924773474</v>
+        <v>1.037229663467077</v>
       </c>
       <c r="K18">
-        <v>1.058922541688058</v>
+        <v>1.041888818071971</v>
       </c>
       <c r="L18">
-        <v>1.061353914093728</v>
+        <v>1.001071996893685</v>
       </c>
       <c r="M18">
-        <v>1.070196909456857</v>
+        <v>1.009964528760734</v>
       </c>
       <c r="N18">
-        <v>1.061811680805442</v>
+        <v>1.038702648561106</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054427585612692</v>
+        <v>1.011194829481874</v>
       </c>
       <c r="D19">
-        <v>1.055748820020722</v>
+        <v>1.029049889064142</v>
       </c>
       <c r="E19">
-        <v>1.058227548268029</v>
+        <v>0.9877594029708283</v>
       </c>
       <c r="F19">
-        <v>1.067107139909977</v>
+        <v>0.9968437778000833</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049996494843696</v>
+        <v>1.052618508988245</v>
       </c>
       <c r="J19">
-        <v>1.06038438514055</v>
+        <v>1.037709284247335</v>
       </c>
       <c r="K19">
-        <v>1.058992231333607</v>
+        <v>1.042323381362595</v>
       </c>
       <c r="L19">
-        <v>1.061462839913165</v>
+        <v>1.001727125697296</v>
       </c>
       <c r="M19">
-        <v>1.070313683353983</v>
+        <v>1.010652377768534</v>
       </c>
       <c r="N19">
-        <v>1.061890252595239</v>
+        <v>1.039182950457884</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053955717065033</v>
+        <v>1.008337485225878</v>
       </c>
       <c r="D20">
-        <v>1.0553731685909</v>
+        <v>1.026779852933144</v>
       </c>
       <c r="E20">
-        <v>1.057675846366836</v>
+        <v>0.9844546674467007</v>
       </c>
       <c r="F20">
-        <v>1.066520900096363</v>
+        <v>0.9933951466212644</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049822808616143</v>
+        <v>1.051335202258127</v>
       </c>
       <c r="J20">
-        <v>1.060033318511296</v>
+        <v>1.035550751408487</v>
       </c>
       <c r="K20">
-        <v>1.058680394376391</v>
+        <v>1.040367606917976</v>
       </c>
       <c r="L20">
-        <v>1.060975367446539</v>
+        <v>0.9987764836454576</v>
       </c>
       <c r="M20">
-        <v>1.06979116509013</v>
+        <v>1.007555137233953</v>
       </c>
       <c r="N20">
-        <v>1.061538687411103</v>
+        <v>1.037021352254818</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052419156273868</v>
+        <v>0.998730386943394</v>
       </c>
       <c r="D21">
-        <v>1.054149723084385</v>
+        <v>1.019153377907625</v>
       </c>
       <c r="E21">
-        <v>1.055876976963229</v>
+        <v>0.9732902423910879</v>
       </c>
       <c r="F21">
-        <v>1.064610647769218</v>
+        <v>0.9817575392092032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049255057619263</v>
+        <v>1.047000902266785</v>
       </c>
       <c r="J21">
-        <v>1.058888893211422</v>
+        <v>1.028281286230335</v>
       </c>
       <c r="K21">
-        <v>1.05766359933813</v>
+        <v>1.033780747720794</v>
       </c>
       <c r="L21">
-        <v>1.059384678286136</v>
+        <v>0.9887959454099201</v>
       </c>
       <c r="M21">
-        <v>1.068087464335713</v>
+        <v>0.9970929633923699</v>
       </c>
       <c r="N21">
-        <v>1.060392636896036</v>
+        <v>1.029741563602294</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051451120851826</v>
+        <v>0.9924226719129454</v>
       </c>
       <c r="D22">
-        <v>1.053378801618636</v>
+        <v>1.014151402098593</v>
       </c>
       <c r="E22">
-        <v>1.054741859194127</v>
+        <v>0.9659137780657822</v>
       </c>
       <c r="F22">
-        <v>1.063406192848196</v>
+        <v>0.9740789541181291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048895709136673</v>
+        <v>1.044140162077804</v>
       </c>
       <c r="J22">
-        <v>1.058166955657894</v>
+        <v>1.023499082171063</v>
       </c>
       <c r="K22">
-        <v>1.057021982543531</v>
+        <v>1.029447634819312</v>
       </c>
       <c r="L22">
-        <v>1.058379970185533</v>
+        <v>0.9821921438369209</v>
       </c>
       <c r="M22">
-        <v>1.067012412499037</v>
+        <v>0.9901820151274753</v>
       </c>
       <c r="N22">
-        <v>1.059669674108375</v>
+        <v>1.024952568264732</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051964481433692</v>
+        <v>0.9957935266150413</v>
       </c>
       <c r="D23">
-        <v>1.053787644216524</v>
+        <v>1.016823920853978</v>
       </c>
       <c r="E23">
-        <v>1.055344000553052</v>
+        <v>0.9698604595583888</v>
       </c>
       <c r="F23">
-        <v>1.06404502529432</v>
+        <v>0.9781862670928466</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049086433538256</v>
+        <v>1.045670339036707</v>
       </c>
       <c r="J23">
-        <v>1.058549897477992</v>
+        <v>1.026055575530626</v>
       </c>
       <c r="K23">
-        <v>1.057362337421918</v>
+        <v>1.031764031684104</v>
       </c>
       <c r="L23">
-        <v>1.058913024171119</v>
+        <v>0.9857263099595144</v>
       </c>
       <c r="M23">
-        <v>1.067582689518464</v>
+        <v>0.9938794473771465</v>
       </c>
       <c r="N23">
-        <v>1.060053159749782</v>
+        <v>1.027512692138099</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053981445495796</v>
+        <v>1.008494366728802</v>
       </c>
       <c r="D24">
-        <v>1.055393651586638</v>
+        <v>1.026904468221278</v>
       </c>
       <c r="E24">
-        <v>1.057705936434745</v>
+        <v>0.9846362970407561</v>
       </c>
       <c r="F24">
-        <v>1.066552869253148</v>
+        <v>0.9935846382881357</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049832286962219</v>
+        <v>1.051405734007387</v>
       </c>
       <c r="J24">
-        <v>1.060052464923113</v>
+        <v>1.035669308854249</v>
       </c>
       <c r="K24">
-        <v>1.058697402242325</v>
+        <v>1.040475029255848</v>
       </c>
       <c r="L24">
-        <v>1.061001959097542</v>
+        <v>0.9989386975799029</v>
       </c>
       <c r="M24">
-        <v>1.069819663427846</v>
+        <v>1.007725359377402</v>
       </c>
       <c r="N24">
-        <v>1.061557861013022</v>
+        <v>1.037140078065752</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.056313869812652</v>
+        <v>1.022216234301714</v>
       </c>
       <c r="D25">
-        <v>1.057250171274857</v>
+        <v>1.037812808593707</v>
       </c>
       <c r="E25">
-        <v>1.060429547466863</v>
+        <v>1.00044161103424</v>
       </c>
       <c r="F25">
-        <v>1.069448809915755</v>
+        <v>1.010095413076573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050687569553421</v>
+        <v>1.057540609112168</v>
       </c>
       <c r="J25">
-        <v>1.061785927884796</v>
+        <v>1.046018386910673</v>
       </c>
       <c r="K25">
-        <v>1.06023678028977</v>
+        <v>1.049851176472679</v>
       </c>
       <c r="L25">
-        <v>1.063406632985007</v>
+        <v>1.013033075425828</v>
       </c>
       <c r="M25">
-        <v>1.072399214509136</v>
+        <v>1.022539006416399</v>
       </c>
       <c r="N25">
-        <v>1.06329378569094</v>
+        <v>1.047503853000072</v>
       </c>
     </row>
   </sheetData>
